--- a/src/assets/Modelo5.xlsx
+++ b/src/assets/Modelo5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t xml:space="preserve">Reporte diario de todos los servicios eléctricos del OACE y OSDE por municipio y provincia </t>
   </si>
@@ -136,21 +136,6 @@
   </si>
   <si>
     <t>Desconectivos Parciales Abiertos</t>
-  </si>
-  <si>
-    <t>Las Tunas</t>
-  </si>
-  <si>
-    <t>CITMA</t>
-  </si>
-  <si>
-    <t>INNOMAX</t>
-  </si>
-  <si>
-    <t>CITMATEL Las Tunas</t>
-  </si>
-  <si>
-    <t>211.0.12071</t>
   </si>
 </sst>
 </file>
@@ -351,7 +336,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -428,17 +413,14 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -724,33 +706,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="13" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="13" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -810,7 +793,7 @@
       </c>
       <c r="AL1" s="28"/>
     </row>
-    <row r="2" spans="1:38" s="22" customFormat="1" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" s="22" customFormat="1" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
@@ -926,44 +909,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="25">
-        <v>63361</v>
-      </c>
-      <c r="G3" s="25">
-        <v>3105</v>
-      </c>
-      <c r="H3" s="24">
-        <v>94</v>
-      </c>
-      <c r="I3" s="24">
-        <v>6450</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>42</v>
-      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="24"/>
-      <c r="M3" s="24" t="s">
-        <v>43</v>
-      </c>
+      <c r="M3" s="24"/>
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
@@ -971,7 +932,7 @@
         <f>P3-O3</f>
         <v>0</v>
       </c>
-      <c r="R3" s="29" t="e">
+      <c r="R3" s="26" t="e">
         <f>Q3/O3</f>
         <v>#DIV/0!</v>
       </c>
@@ -981,44 +942,38 @@
         <f>T3-S3</f>
         <v>0</v>
       </c>
-      <c r="V3" s="29" t="e">
+      <c r="V3" s="26" t="e">
         <f>U3/S3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W3" s="24"/>
       <c r="X3" s="24"/>
       <c r="Y3" s="24"/>
-      <c r="Z3" s="24">
-        <v>1.5</v>
-      </c>
+      <c r="Z3" s="24"/>
       <c r="AA3" s="24"/>
       <c r="AB3" s="24">
         <f>AA3-Z3</f>
-        <v>-1.5</v>
-      </c>
-      <c r="AC3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="26" t="e">
         <f>AB3/Z3</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD3" s="24"/>
       <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="24">
-        <v>8</v>
-      </c>
-      <c r="AI3" s="24">
+      <c r="AF3" s="24">
+        <f>AE3-AD3</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="24">
-        <v>3</v>
-      </c>
-      <c r="AK3" s="24">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="24">
-        <v>2</v>
-      </c>
+      <c r="AG3" s="26" t="e">
+        <f>AF3/AD3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
